--- a/tests/Templates/tLists4_complexRange.xlsx
+++ b/tests/Templates/tLists4_complexRange.xlsx
@@ -146,7 +146,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -154,20 +153,17 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -214,7 +210,6 @@
       <color indexed="55"/>
       <name val="Webdings"/>
       <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <i/>
@@ -227,7 +222,6 @@
       <color indexed="54"/>
       <name val="Webdings"/>
       <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -247,7 +241,6 @@
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
